--- a/skills-courses/Stepstone_job_vacancies.xlsx
+++ b/skills-courses/Stepstone_job_vacancies.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vira.liubchenko\Dropbox\Progresylni\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vira.liubchenko\Dropbox\Science\notebooks\course desing on skills\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFA8C8E-AB53-4B1C-B478-E7E7881D90A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31469C79-D43B-44F0-84CC-04ADA08E4207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="222">
   <si>
     <t>Job_Title</t>
   </si>
@@ -185,15 +185,6 @@
     <t>ALD AutoLeasing D GmbH</t>
   </si>
   <si>
-    <t>You have a university degree or a doctorate in physics, mathematics, statistics,
-    computer science, business informatics or in a comparable field.
-    You have at least 3 years of professional experience in programming with R or Python, ideally in a data science environment.
-    You have very good knowledge of SQL and statistics.
-    You are interested in cars.
-    You are good at explaining and visualizing complex issues in an easily understandable way and enjoy communicating.
-    A good command of German and English rounds off your profile.</t>
-  </si>
-  <si>
     <t>Fincon Reply GmbH</t>
   </si>
   <si>
@@ -241,9 +232,6 @@
     Effective communication skills to present complex data findings to non-technical stakeholders
     Knowledge of wind turbine behaviour and operations and the renewable energy industry is a strong plus
     Fluent English skills are required, additional German or Spanish language skills are an advantage</t>
-  </si>
-  <si>
-    <t>(Senior-) Data Scientist (m/w/d) – Risikomodelle</t>
   </si>
   <si>
     <t>Sparkassen Rating und Risikosyst</t>
@@ -451,19 +439,6 @@
     <t xml:space="preserve">Senior Data Analyst </t>
   </si>
   <si>
-    <t xml:space="preserve">    The Tools We Use:
-    Warehousing and ELT: Snowflake, dbt, SQL
-    Visualisation: Looker (LookML)
-    Data Sources and Importing Tools: Salesforce, Internal Applications, Event Data, Fivetran and Airbyte
-    Ad-Hoc Analysis: SQL, R, Python 
-What will you need to be successful?
-    You are proficient in SQL and bring previous experience in data analytics, data science, business intelligence, or a related field. We welcome applicants with an academic background
-    You have knowledge of statistics - using statistical concepts in testing, modeling, and forecasting
-    You have a strong business mindset and you are able to communicate data topics to non-technical stakeholders
-    You are able to work independently and have a problem-solving mindset
-    You like to collaborate with your colleagues. You ask colleagues when you’re stuck and help them out when they are. You discuss ideas and challenges </t>
-  </si>
-  <si>
     <t>Reply</t>
   </si>
   <si>
@@ -707,6 +682,490 @@
     High degree of initiative and quality awareness as well as a structured and independent way of working
     You understand and communicate fluently in English, also when it’s about complex content in connection to statistics, coding, and market analysis
     You enjoy integrating and cooperating with an international team </t>
+  </si>
+  <si>
+    <t>Data Scientist | Ranking</t>
+  </si>
+  <si>
+    <t>Must-have:
+    Team player with a passion for knowledge transfer, openness and flexibility
+    Agile, analytical and technology-orientated mindset
+    Experience as a data scientist in a data-driven environment and in the implementation and go-live of AI/ML models, such as XGBoost or LightGBM, and statistical models (ideally in e-commerce or retail)
+    Hands-on experience working with large amounts of data, including data collection, processing and cleansing
+Nice-to-have:
+   Experience working with ranking or recommender systems
+    Expertise in search technologies in e-commerce
+    Initial experience in the productive operation of neural networks</t>
+  </si>
+  <si>
+    <t>Data Scientist Anti Financial Crime &amp; Compliance</t>
+  </si>
+  <si>
+    <t>Sopra Steria</t>
+  </si>
+  <si>
+    <t>Berlin, Frankfurt am Main, Hamburg</t>
+  </si>
+  <si>
+    <t>You have a degree in (business) computer science, mathematics, economics or a comparable course of study
+    You already have extensive expertise in Python, Apache Spark and SQL or comparable technologies
+    You have in-depth knowledge of data architectures (e.g. relational and graph databases)
+    Practical experience in the visualisation of large amounts of data and corresponding technologies (e.g. Tableau) and frameworks (e.g. ggplot) round off your profile
+    Ideally, you already have specialist knowledge from the banking environment
+    You have strong communication skills as well as understanding and empathy for our customers
+    You have a good command of German and English
+    Consulting means flexibility: Your project assignment depends on our customers and your project situation and includes both hybrid work and on-site assignments</t>
+  </si>
+  <si>
+    <t>Data Scientist Natural Language Processing</t>
+  </si>
+  <si>
+    <t>Drägerwerk AG &amp; Co. KGaA</t>
+  </si>
+  <si>
+    <t>Lübeck</t>
+  </si>
+  <si>
+    <t>Completed university degree in computer science, business informatics, statistics, mathematics, physics - doctorate desirable
+    Several years of task-related professional experience with the preparation and analysis of large amounts of data
+    Knowledge of current ML frameworks (Tensorflow, pyTorch) and Python as well as in the area of cloud, ML platforms and visualisation / containers
+    Know-how in the field of NLP (text pre-processing/mining, language modelling, NLP tools and frameworks)
+    Experience with agile methods (Scrum, DevOps)
+    Business fluent in German and English</t>
+  </si>
+  <si>
+    <t>(Senior-) Data Scientist – Risikomodelle</t>
+  </si>
+  <si>
+    <t>Sparkassen Rating und Risikosystem</t>
+  </si>
+  <si>
+    <t>Machine Learning Engineer</t>
+  </si>
+  <si>
+    <t>LAIQON AG</t>
+  </si>
+  <si>
+    <t>Completed studies in computer science, statistics, mathematics or a related field
+    In-depth knowledge of Python
+    Experience with machine learning frameworks such as TensorFlow, Keras or PyTorch or even Qiskit
+    A good understanding of statistics and mathematical models
+    Ability to work in a team, analytical thinking and an independent way of working
+    Good written and spoken communication skills
+Additionally desirable:
+    Experience with cloud services such as AWS, Google Cloud or Azure
+    Knowledge of big data technologies such as Spark or Hadoop
+    Knowledge of databases and SQL
+    Publications or contributions in relevant ML conferences or journals</t>
+  </si>
+  <si>
+    <t>Junior Data Scientist – Risikomodelle</t>
+  </si>
+  <si>
+    <t>Completed studies (doctorate if applicable) in the field of economics, computer science, mathematics, physics or comparable quantitative studies
+    Good knowledge of application-oriented statistics, financial mathematics or risk management
+    Ideally initial experience
+        in the practical application and use of statistical methods 
+        with machine learning algorithms or numerical optimization (e.g. regression methods, random forests, neural networks)
+        in dealing with SQL and in another database management system
+        with an analysis tool (e.g. R, SAS, KNIME, SPSS, Matlab) or common programming languages (e.g. Python, Java)
+        in the environment of banks, consulting, auditing or insurance companies
+    Strong team-oriented approach with a dash of humor</t>
+  </si>
+  <si>
+    <t>Manager - Data Analytics</t>
+  </si>
+  <si>
+    <t>Grant Thornton AG Wirtschaftsprü</t>
+  </si>
+  <si>
+    <t>Hamburg, Frankfurt am Main, Düsseldorf</t>
+  </si>
+  <si>
+    <t>You have an above-average university degree (M.Sc. / PhD) in a relevant field, such as computer science, mathematics, statistics, physics, business administration or similar. 
+    You already have professional experience in related sectors, e.g. consulting, banking/finance, industry, etc.
+    You have programming skills in common languages such as R, Python, SQL as well as knowledge of BI applications and Office365
+    You are familiar with the basics of financial accounting (P&amp;L, BS, etc.)
+    You use your excellent understanding of numbers and your very good analytical and conceptual skills to solve complex tasks
+    As a flexible and communicative team player (m/f/d), you are committed to our projects
+    You keep a cool head - even under stress and with tight deadlines
+    You are business fluent in German and English</t>
+  </si>
+  <si>
+    <t>Junior Data Scientist</t>
+  </si>
+  <si>
+    <t>OPED GmbH</t>
+  </si>
+  <si>
+    <t>Valley/Oberlaindern, bundesweit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Completed studies with technical or scientific reference (e.g. computer science, statistics, business informatics, mathematics, physics) or comparable qualification
+    Initial experience in working with common platforms and tools (Docker, Azure, Python, SQL)
+    Initial experience in computer vision projects
+    First experience in the analysis of complex data sets and the application of machine learning, data mining methods
+    Analytical thinking skills and a structured way of working
+    Strong communication skills and a team-oriented personality
+    Excellent written and spoken English </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Scientist - AI/ML </t>
+  </si>
+  <si>
+    <t>Chemovator</t>
+  </si>
+  <si>
+    <t>Antwerpen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    You have a Masters degree or PhD in a data-related field like Data Science, Statistics, Computer Science, or any related technical discipline
+    You already have at least 5 years of work experience in the field of AI/ML or related areas and are experienced in using ML in an easy to use product
+    You are experienced in programming languages such as Matlab, Python or R
+    You are familiar with time series as a data type and concepts like stationarity, trend and seasonality and all other characteristics that contrast time series from cross-sectional data
+    You are familiar with neural networks and deep learning, its parameters, restrictions, training and capabilities; knowledge on the application of neural networks in time series is a bonus
+    Bonus: You have done academic or industry research in time series modelling, or you have done similar work with time series data in chemical or process industrial context.</t>
+  </si>
+  <si>
+    <t>Data Scientist Erfahrungsanalysen</t>
+  </si>
+  <si>
+    <t>Hannover</t>
+  </si>
+  <si>
+    <t>Passion for and enjoyment of data science, actuarial analysis and international collaboration
+    Master's degree in mathematics, physics, computer science, statistics, data science or a comparable degree programme
+    Sound knowledge of statistics and data science
+    Basic knowledge of actuarial mathematics
+    Knowledge of a higher programming language (e.g. R, Python)
+    German and English at a conversational level (B2)
+    Willingness to travel occasionally
+Personally, you have good communication skills and strong interpersonal skills. If you also have a confident manner in dealing with internal / external customers and enjoy working in a team with an international context, you've come to the right place!</t>
+  </si>
+  <si>
+    <t>Junior Data Visualization Engineer</t>
+  </si>
+  <si>
+    <t>We look forward to your successfully completed technical/scientific studies
+    You have basic knowledge and ideally some practical experience in the areas of data warehousing and business intelligence
+    Initial experience in working with SQL, DAX / MDX, Python or R and in the creation of dashboards using BI front-ends or Power BI is an advantage
+    You are enthusiastic about extracting information from very large amounts of data
+    You have a good command of German and English and are characterised by an analytical, precise and independent way of working</t>
+  </si>
+  <si>
+    <t>Digital Data Scientist</t>
+  </si>
+  <si>
+    <t>ADAC</t>
+  </si>
+  <si>
+    <t>Degree - You have successfully completed a degree in computer science, business administration, economics, mathematics, statistics or a comparable field of study.
+    Professional experience - You have several years of practical experience in data analysis and have an understanding of the processes and business contexts of an operational company. Ideally, you have experience in the implementation of data integration and transformation tasks using Microsoft Data Factory or Data Warehouse in the Microsoft Fabric. 
+    Technical expertise - Your practical experience in using the BI and analytics toolset of the Microsoft Azure Cloud (especially Power BI, MS-SQL, Cosmos-DB and Data Warehouse) makes you an expert. 
+    Your personality is characterised by your ability to work in a team, independence and service and customer orientation. 
+    With a careful, independent and structured way of working, you approach challenges proactively and find practical solutions.
+    You have excellent communication skills and can convey complex technical information in a clear and convincing manner. 
+    You have a very good command of German at C1 level and a good command of English.</t>
+  </si>
+  <si>
+    <t>Canada Life Assurance Europe plc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Köln</t>
+  </si>
+  <si>
+    <t>You have a degree with a focus on industrial engineering, business mathematics, computer science / business informatics, data science, machine learning or a comparable education.
+    Several years of experience in the field of data science as well as experience in the implementation of data science projects is desirable.
+    Extensive programming skills (e.g. Python, SQL, R) are the hallmark of your profile.
+    Strong knowledge of the GDPR in connection with data processing is another important component of your skills.
+    You are able to work in an interdisciplinary manner with regard to economic and technological issues.
+    You are characterised by a high technical affinity, creativity and a solution-oriented approach through a high level of initiative.
+    Routine use of MS Office is a matter of course for you.
+    You also have a fluent command of written and spoken German and English.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Scientist </t>
+  </si>
+  <si>
+    <t>bundesweit, Berlin, Frankfurt am Mein</t>
+  </si>
+  <si>
+    <t>You have a degree in (business) computer science, mathematics, economics or a comparable qualification
+    You have very good knowledge of data science, cloud and / or business intelligence
+    Ideally, you have already gained experience with Python, Qlik, Tableau, Power BI or databases (SQL Server, Oracle) and in defining SQL queries
+    Very good analytical skills, a self-organised way of working and very good communication and presentation skills round off your profile
+    You have a passion for trends and technologies and are constantly learning new things
+    Good knowledge of German and English
+    Consulting means flexibility: Your project assignment depends on our customers and your project situation and includes both hybrid work and on-site assignments</t>
+  </si>
+  <si>
+    <t>Solandeo GmbH</t>
+  </si>
+  <si>
+    <t>You have several years of professional experience in the fields of data science, data analytics, big data and/or machine learning; industry experience in the energy sector is desirable, but not a must
+    You are enthusiastic about using innovative machine learning methods to solve specific challenges in the context of the energy transition
+    Your basis is a degree in a relevant degree programme (e.g. mathematics, statistics, computer science) with a data analysis focus as well as sound knowledge of stochastic models, statistical methods and artificial intelligence algorithms
+    You are particularly familiar with mathematical-statistical methods of time series analysis and machine learning methods for forecasting
+    You can not only implement the methods in Python, but are also characterised by a deep understanding of the underlying theory
+    Ideally, you are also familiar with optimisation methods
+    You are characterised by your open, friendly and respectful manner
+    You have a very good command of German and communicate fluently in English
+    Structured, analytical project management and systematic project work are a matter of course for you</t>
+  </si>
+  <si>
+    <t>Data Analyst / Data Scientist</t>
+  </si>
+  <si>
+    <t>DeutschlandCard GmbH</t>
+  </si>
+  <si>
+    <t>Completed studies with an analytical focus (e.g. statistics, economics/business administration, business informatics, business mathematics)
+    Ideally 2 years of professional experience in the field of data analysis/analytical CRM
+    Experience in the application of analytical methods to optimise direct marketing activities
+    Experience in the use of common analysis and statistics tools, especially on large amounts of data (using R, Python)
+    Very good knowledge of SQL and at least one programming language
+    Knowledge of Tableau is a plus
+    Understanding of customer needs and ability to grasp complex issues quickly
+    Strong communication skills and a confident demeanour as well as a high degree of initiative
+    Good knowledge of German and English</t>
+  </si>
+  <si>
+    <t>Successfully completed social science or STEM studies, e.g. in the field of data science, statistics or computer science with a quantitative focus and health relevance
+    Several years of experience in the use of relevant analytics tools such as SAS, R, Python
+    Knowledge of working with SQL databases, preferably on large (poly)structured data sets
+    Experience in conceptual work and agile working methods
+    Active problem-solving and communication behaviour</t>
+  </si>
+  <si>
+    <t>EGYM GmbH</t>
+  </si>
+  <si>
+    <t>You have last 5 years of professional experience in delivering machine-learning-based solutions
+    You are comfortable developing in Python and can preferably work with code in other languages (such as Java, Go, or R)
+    You are able to integrate many different kinds of data into the solution (SQL, NoSQL, unstructured, etc.)
+    You have extensive practical and theoretical knowledge in data science and machine learning methods
+    You have excellent communication skills and an ability to explain complex, abstract concepts in simple, concrete terms
+    You are comfortable solving problems end-to-end in a hands-on manner, recognizing that collaboration outside your areas of expertise is often necessary
+    You are able to strike a balance between acting independently and delegating where possible</t>
+  </si>
+  <si>
+    <t>Senior Data Scientist Advanced Analytics &amp; AI</t>
+  </si>
+  <si>
+    <t>Mercedes - Benz AG</t>
+  </si>
+  <si>
+    <t>Böblingen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    Completed degree in a natural sciences, mathematics, or business-related field
+    2-5 years of professional experience in process analysis and optimization or software development in a dynamic-analytical work environment (e.g., in the automotive industry, software or startup sector, management consulting, or similar manufacturing sectors) and in the implementation of digitalization projects
+    Extensive experience in the application of statistics, artificial intelligence methods, unsupervised and supervised learning, reinforcement learning, deep learning, and data modeling
+    Knowledge and solid experience in planning and managing complex IT projects as well as familiarity with agile methods (Scrum, Kanban, etc.)
+    Excellent knowledge of Azure services (e.g., ADF, Databricks, EventHub, ADLS, Monitoring, PowerBI Server, Azure SQL, Synapse, etc.), along with a deep understanding of API design and microservices
+    Proficiency with technologies like Databricks, Azure Data Explorer, ML libraries (Scikit-learn, TensorFlow, Keras), etc., and visualization software (e.g., Qlik Sense, Tableau, Power BI)
+    Outstanding programming language skills in relevant data science languages (Python, R) on large data processing frameworks (e.g., Azure Data Factory, Azure Fabrics, Databricks, etc.)
+    Strong strategic, conceptual, methodological, and organizational skills
+    Proficiency in project management tools (e.g., Confluence, Jira)
+Personal Competencies: 
+    Exceptionally high analytical and conceptual skills
+    Strong technical and digital understanding
+    Strong teamwork skills and enthusiasm for cross-functional project work
+    Curiosity and a desire to explore technological advancements in the cloud, analytics, and AI domains
+    Strong desire for innovation, creative problem-solving, and a hands-on mentality
+    Fluent in both German and English</t>
+  </si>
+  <si>
+    <t>(Senior) Manager - Data Analytics (Transactions)</t>
+  </si>
+  <si>
+    <t>Applied Scientist II, AFT AI</t>
+  </si>
+  <si>
+    <t>Amazon Europe Core</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    PhD, or a Master's degree and experience in CS, CE, ML or related field
+    Experience in building models for business application
+    Experience programming in Java, C++, Python or related language
+    Experience with state-of-the-art deep learning and data science frameworks like PyTorch, TensorFlow, Pandas
+    Experience working with deep learning models for classification tasks
+Preferred qualifications
+    Experience in professional software development
+    Experience in deploying deep learning models in production
+    Experience training deep learning models with multi-modal input</t>
+  </si>
+  <si>
+    <t>DHL Sorting Center GmbH</t>
+  </si>
+  <si>
+    <t>Bonn</t>
+  </si>
+  <si>
+    <t>Completed Master's degree with a quantitative focus on e.g. mathematics, (business) computer science, statistics, data science or economics
+    At least 3 years of professional experience in the field of data science or a PhD in data science or related fields
+    Good programming skills in Python, especially with the pandas package
+    Advanced experience with SQL databases (ideally PostgreSQL)
+    Experience in the use of Grafana desirable
+    Analytical strength, good statistical knowledge and a keen interest in operational processes
+    Reliability, ability to work in a team, initiative and flexibility
+    Fluent written and spoken German
+    Knowledge of Polish is an advantage</t>
+  </si>
+  <si>
+    <t>Hannover Rück SE</t>
+  </si>
+  <si>
+    <t>Data Analyst im Bereich Integration &amp; Absicherung</t>
+  </si>
+  <si>
+    <t>ARRK Engineering GmbH</t>
+  </si>
+  <si>
+    <t>Successfully completed studies in electrical engineering, automotive engineering, mechatronics, (technical) computer science or a comparable qualification
+    Analytical and conceptual thinking skills as well as the ability to work in a team
+    Good knowledge of analysing bus systems (Ethernet, FlexRay, CAN)
+    Experience in dealing with database systems
+    Ideally initial experience in dealing with a cloud environment (Microsoft Azure, AWS)
+    Business fluent German and good English skills</t>
+  </si>
+  <si>
+    <t>Data Scientist mit KI-Ambitionen</t>
+  </si>
+  <si>
+    <t>Kassenärztliche Vereinigung Nord</t>
+  </si>
+  <si>
+    <t>Düsseldorf</t>
+  </si>
+  <si>
+    <t>You have successfully completed a degree in mathematics, computer science or a related field
+    You have gained initial professional experience as a data scientist (f/m/d) with a focus on data analysis and model development
+    You have extensive knowledge of statistical methods and initial experience with machine learning, deep learning, autonomous systems
+    You have advanced knowledge of Python and/or R as well as in-depth knowledge of the Microsoft stack
+    Ideally, you have completed further training or certification in project or process management such as ITIL, PRINCE2, PMP or similar
+    You have strong communication and presentation skills as well as a pragmatic hands-on mentality
+    You are highly motivated to familiarise yourself with new topics and processes and to identify and communicate approaches for data-driven procedures
+    You are enthusiastic about improving healthcare and integrating modern technologies, especially artificial intelligence in the healthcare sector</t>
+  </si>
+  <si>
+    <t>(Senior) Actuarial Data Scientist</t>
+  </si>
+  <si>
+    <t>Verti Versicherung AG</t>
+  </si>
+  <si>
+    <t>Teltow bei Berlin</t>
+  </si>
+  <si>
+    <t>Completed master's degree/diploma in mathematics, statistics, business mathematics or business informatics
+    First professional experience in an actuarial environment (reserving, pricing, risk management) or PhD, insurance expertise an advantage
+    Very confident with Python/R and SQL
+    Experience in working with AWS Cloud applications is desirable
+    Very good analytical thinking skills, quick comprehension and a solution-oriented and structured way of working
+    A high degree of initiative and independence
+    Business fluent in written and spoken German and English, knowledge of Spanish is an advantage</t>
+  </si>
+  <si>
+    <t>You have a university degree or a doctorate in physics, mathematics, statistics, computer science, business informatics or in a comparable field.
+    You have at least 3 years of professional experience in programming with R or Python, ideally in a data science environment.
+    You have very good knowledge of SQL and statistics.
+    You are interested in cars.
+    You are good at explaining and visualising complex issues in an easily understandable way and enjoy communicating.
+    A good command of German and English rounds off your profile.</t>
+  </si>
+  <si>
+    <t>Data Scientist - Process Mining</t>
+  </si>
+  <si>
+    <t>ZEISS</t>
+  </si>
+  <si>
+    <t>Oberkochen (Baden-Württemberg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    an excellent degree in business informatics, computer science, IT-oriented business administration/VWL, mathematics, physics or a comparable education
+    keen interest in big data, data mining and process mining and want to keep developing
+    analytical thinking skills, work structured and have a quick grasp
+    a strong "hands-on" mentality
+    in-depth experience in at least one of the following business processes: Order 2 Cash, Accounts Receivables, Accounts Payables or Purchase to Pay...
+    The ability to track process flows in SAP systems and a very good knowledge of SAP ERP and/or CRM data structures as well as SQL
+    already have extensive experience with Celonis Process Mining and/or Python
+    The ability to prepare and communicate complex connections in a user-friendly manner as well as very good English and German skills</t>
+  </si>
+  <si>
+    <t>HMS Analytical Software GmbH</t>
+  </si>
+  <si>
+    <t>Heidelberg, Berlin</t>
+  </si>
+  <si>
+    <t>At least a good degree in computer science, business informatics or related subjects or in mathematics, physics or comparable natural science degree programmes
+    Several years of practical experience in data science, business intelligence or software engineering in a machine learning environment or as a consultant in a digitalisation context
+    Very good knowledge of at least one analytical programming language (e.g. Python, R) or a universal programming language (e.g. C#, Java, C++, Rust)
+    Good knowledge of the use of relational databases and SQL
+    Experience with cloud technologies (e.g. Azure, AWS), big data technologies (e.g. Spark, Kafka) and operationalisation tools (e.g. Docker, Kubernetes)
+    Experience in DevOps/MLOps principles and tools
+    Strong communication skills in German and English - in a team and with customers
+    Curiosity and willingness to travel occasionally</t>
+  </si>
+  <si>
+    <t>KMH GmbH</t>
+  </si>
+  <si>
+    <t>Köln</t>
+  </si>
+  <si>
+    <t>Develop and implement algorithms, data models and business logic using SQL and Python in collaboration with the business departments to generate predictions and recommendations
+    Operate, monitor and optimise ETL processes as a member of an agile team
+    Identify data issues and develop solutions to improve data quality and accuracy
+    Data integration, storage and processing with suitable technologies, whether SQL, Python, REST API or JSON
+    Designing and building a new data infrastructure in the AWS environment, e.g. with Athena, Glue and S3
+    Cross-team collaboration to integrate data-driven functions into existing applications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Analytics Consultant </t>
+  </si>
+  <si>
+    <t>Capgemini Engineering</t>
+  </si>
+  <si>
+    <t>Hamburg, Berlin, Düsseldorf, Frankfurt</t>
+  </si>
+  <si>
+    <t>Successfully completed studies in economics, business informatics, computer science or a comparable degree programme.
+    Hands-on experience in data-orientated programming languages (e.g. SAS, Python, R).
+    Knowledge of business intelligence tools and technologies an advantage.
+    SCRUM knowledge and experience in the financial or public sector is an advantage.
+    Experience in marketing automation and customer analytics an advantage.
+    Consulting mindset and enthusiasm for creative solutions at the interface between data and business.
+    Strong analytical thinking, above-average comprehension skills, independent problem-solving ability.
+    Reliability, strong communication skills and strong team play.
+    Business fluent in German and fluent in English.
+    Willingness to travel within Germany.</t>
+  </si>
+  <si>
+    <t>(Junior) Data Scientist / Machine Learning Engineer</t>
+  </si>
+  <si>
+    <t>CHECK24</t>
+  </si>
+  <si>
+    <t>Education: Very good degree, e.g. in (business) computer science, mathematics, physics or statistics
+    Professional experience: First practical experience in data science projects, preferably with first insights into ranking and recommendation systems
+    Tools: Sound knowledge of the Python data science stack (Pandas, SKLearn, SciPy) as well as experience with deep learning frameworks (Pytorch, Tensorflow)
+    Smart solution finding: creativity and curiosity in applying the latest algorithms from the field of data science to optimise our products
+    Interdisciplinary mindset: Motivation for interdisciplinary work between IT and product management and for knowledge exchange within the CHECK24 data science community
+    Language skills: Very good written and spoken German and English skills</t>
+  </si>
+  <si>
+    <t>You have a degree with a quantitative focus (e.g. computer science, mathematics, physics, business informatics, etc.), which forms the basis for your qualification. 
+    You have first relevant professional experience as a Data Scientist (m/f/d), as well as experience with agile working methods such as Scrum, Kanban or similar. You also enjoy finding and implementing solutions for business-specific challenges.
+    You are characterised by extensive skills and knowledge in AI disciplines, including statistics, machine learning and deep learning. Knowledge of NLP, reinforcement learning or generative modelling is a plus. 
+    Good programming skills in Python and SQL are a matter of course for you. You also have experience in working with GitLab and container solutions. Knowledge of cloud platforms such as AWS or Google Cloud is an advantage. 
+    An agile mindset with a high degree of personal responsibility, initiative and pioneering spirit is a matter of course for you. You are also fluent in German and English in order to operate successfully in an international environment.</t>
   </si>
 </sst>
 </file>
@@ -1052,11 +1511,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1080,636 +1537,1018 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="144" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="D3" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D5" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="7" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    </row>
+    <row r="10" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>218</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>9</v>
+        <v>219</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>11</v>
+        <v>212</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>154</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>118</v>
+        <v>155</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>58</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>94</v>
+        <v>174</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>95</v>
+        <v>175</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>104</v>
+        <v>188</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="144" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>87</v>
+        <v>135</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>111</v>
+        <v>41</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>108</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="D23" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="144" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>45</v>
+        <v>10</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="216" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="144" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="D33" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>79</v>
+        <v>158</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>80</v>
+        <v>191</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="216" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36" s="1" t="s">
+      <c r="D38" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>20</v>
+      <c r="B39" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="216" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>87</v>
+        <v>195</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="B42" s="1" t="s">
-        <v>54</v>
+        <v>211</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>60</v>
+        <v>142</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+      <c r="D43" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
+      <c r="C48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="79.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>207</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D52">
-    <sortCondition ref="B2:B52"/>
-    <sortCondition ref="A2:A52"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D73">
+    <sortCondition ref="B2:B73"/>
+    <sortCondition ref="A2:A73"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
